--- a/server/excel/url/base(基础信息)_url.xlsx
+++ b/server/excel/url/base(基础信息)_url.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070"/>
+    <workbookView windowWidth="22943" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="sec" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170">
   <si>
     <t>命令码</t>
   </si>
@@ -491,6 +491,65 @@
   <si>
     <t>合同集合,总数</t>
   </si>
+  <si>
+    <t>通讯录-创建联系人</t>
+  </si>
+  <si>
+    <t>/base/contactsAdd</t>
+  </si>
+  <si>
+    <t>CbhsContacts</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>通讯录-修改联系人</t>
+  </si>
+  <si>
+    <t>/base/contactsUpdate</t>
+  </si>
+  <si>
+    <t>通讯录-删除联系人</t>
+  </si>
+  <si>
+    <t>/base/contactsDel</t>
+  </si>
+  <si>
+    <t>联系人ID集合</t>
+  </si>
+  <si>
+    <t>{
+    "oids": ["@NotNull(message='联系人ID不能为空')"]
+}</t>
+  </si>
+  <si>
+    <t>通讯录-查询联系人</t>
+  </si>
+  <si>
+    <t>/base/contactsFetch</t>
+  </si>
+  <si>
+    <t>oid:int,name:string,phone:string,post:string,pageNum:int,pageSize:int,startOid:int</t>
+  </si>
+  <si>
+    <t>联系人ID,姓名(模糊查询),电话(模糊查询),职位(模糊查询),页码,数量,开始ID</t>
+  </si>
+  <si>
+    <t>result:CbhsContacts[],total:long</t>
+  </si>
+  <si>
+    <t>联系人集合,总数</t>
+  </si>
+  <si>
+    <t>通讯录-导入联系人</t>
+  </si>
+  <si>
+    <t>/base/contactsImport</t>
+  </si>
+  <si>
+    <t>联系人Excel</t>
+  </si>
 </sst>
 </file>
 
@@ -498,9 +557,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -529,15 +588,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,9 +601,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,14 +632,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -584,21 +642,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,8 +668,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,18 +716,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -670,14 +737,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -688,6 +747,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -712,84 +855,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -863,12 +928,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,17 +941,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,11 +980,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,168 +1038,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1425,26 +1484,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="D20" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.4416666666667" customWidth="1"/>
-    <col min="2" max="2" width="35.775" customWidth="1"/>
+    <col min="1" max="1" width="23.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="35.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="9.89166666666667" customWidth="1"/>
+    <col min="5" max="5" width="9.88888888888889" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="105.891666666667" customWidth="1"/>
-    <col min="8" max="8" width="60.5583333333333" customWidth="1"/>
-    <col min="9" max="9" width="88.4416666666667" customWidth="1"/>
-    <col min="10" max="10" width="23.4416666666667" customWidth="1"/>
+    <col min="7" max="7" width="105.888888888889" customWidth="1"/>
+    <col min="8" max="8" width="60.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="88.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="23.4444444444444" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="114.891666666667" customWidth="1"/>
+    <col min="12" max="12" width="114.888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -2548,6 +2607,158 @@
         <v>150</v>
       </c>
       <c r="L36" s="4"/>
+    </row>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A37" s="1">
+        <v>21101</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A38" s="1">
+        <v>21102</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A39" s="1">
+        <v>21103</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A40" s="1">
+        <v>21104</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="A41" s="1">
+        <v>21105</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
